--- a/idePeru.xlsx
+++ b/idePeru.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t xml:space="preserve">Ubigeo</t>
   </si>
   <si>
-    <t xml:space="preserve">Provincia</t>
+    <t xml:space="preserve">PROVINCIA</t>
   </si>
   <si>
     <t xml:space="preserve">habitantes</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">020700</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS FERMIN FITZCARRALD</t>
+    <t xml:space="preserve">CARLOS F. FITZCARRALD</t>
   </si>
   <si>
     <t xml:space="preserve">020800</t>
@@ -897,6 +897,12 @@
   </si>
   <si>
     <t xml:space="preserve">UCAYALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEM DEL MARANON</t>
   </si>
   <si>
     <t xml:space="preserve">170100</t>
@@ -5718,25 +5724,25 @@
         <v>296</v>
       </c>
       <c r="C145" t="n">
-        <v>78523</v>
+        <v>49571</v>
       </c>
       <c r="D145" t="n">
-        <v>0.710516447865677</v>
+        <v>0.303589220957637</v>
       </c>
       <c r="E145" t="n">
-        <v>95.422997083657</v>
+        <v>79.6009763773174</v>
       </c>
       <c r="F145" t="n">
-        <v>18.7206296244412</v>
+        <v>3.63115531258195</v>
       </c>
       <c r="G145" t="n">
-        <v>77.9563444471096</v>
+        <v>36.6335118592196</v>
       </c>
       <c r="H145" t="n">
-        <v>75.9172991363517</v>
+        <v>2.57938782528946</v>
       </c>
       <c r="I145" t="n">
-        <v>74.7605338916514</v>
+        <v>26.928808896022</v>
       </c>
     </row>
     <row r="146">
@@ -5747,25 +5753,25 @@
         <v>298</v>
       </c>
       <c r="C146" t="n">
-        <v>20290</v>
+        <v>78523</v>
       </c>
       <c r="D146" t="n">
-        <v>0.437357379295311</v>
+        <v>0.710516447865677</v>
       </c>
       <c r="E146" t="n">
-        <v>89.9704287826516</v>
+        <v>95.422997083657</v>
       </c>
       <c r="F146" t="n">
-        <v>5.9142434696895</v>
+        <v>18.7206296244412</v>
       </c>
       <c r="G146" t="n">
-        <v>62.5235404896422</v>
+        <v>77.9563444471096</v>
       </c>
       <c r="H146" t="n">
-        <v>11.3497578437566</v>
+        <v>75.9172991363517</v>
       </c>
       <c r="I146" t="n">
-        <v>44.9778900821225</v>
+        <v>74.7605338916514</v>
       </c>
     </row>
     <row r="147">
@@ -5776,25 +5782,25 @@
         <v>300</v>
       </c>
       <c r="C147" t="n">
-        <v>10742</v>
+        <v>20290</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5797104947917</v>
+        <v>0.437357379295311</v>
       </c>
       <c r="E147" t="n">
-        <v>96.1180413330851</v>
+        <v>89.9704287826516</v>
       </c>
       <c r="F147" t="n">
-        <v>13.0329547570285</v>
+        <v>5.9142434696895</v>
       </c>
       <c r="G147" t="n">
-        <v>69.0854870775348</v>
+        <v>62.5235404896422</v>
       </c>
       <c r="H147" t="n">
-        <v>39.7069872276484</v>
+        <v>11.3497578437566</v>
       </c>
       <c r="I147" t="n">
-        <v>63.2231404958678</v>
+        <v>44.9778900821225</v>
       </c>
     </row>
     <row r="148">
@@ -5805,25 +5811,25 @@
         <v>302</v>
       </c>
       <c r="C148" t="n">
-        <v>72849</v>
+        <v>10742</v>
       </c>
       <c r="D148" t="n">
-        <v>0.733305126536036</v>
+        <v>0.5797104947917</v>
       </c>
       <c r="E148" t="n">
-        <v>98.8359483314802</v>
+        <v>96.1180413330851</v>
       </c>
       <c r="F148" t="n">
-        <v>21.2768878090296</v>
+        <v>13.0329547570285</v>
       </c>
       <c r="G148" t="n">
-        <v>85.7032814666461</v>
+        <v>69.0854870775348</v>
       </c>
       <c r="H148" t="n">
-        <v>69.0193003093278</v>
+        <v>39.7069872276484</v>
       </c>
       <c r="I148" t="n">
-        <v>77.6325534788481</v>
+        <v>63.2231404958678</v>
       </c>
     </row>
     <row r="149">
@@ -5834,25 +5840,25 @@
         <v>304</v>
       </c>
       <c r="C149" t="n">
-        <v>24904</v>
+        <v>72849</v>
       </c>
       <c r="D149" t="n">
-        <v>0.521453867413401</v>
+        <v>0.733305126536036</v>
       </c>
       <c r="E149" t="n">
-        <v>98.2733697398008</v>
+        <v>98.8359483314802</v>
       </c>
       <c r="F149" t="n">
-        <v>7.2277545775779</v>
+        <v>21.2768878090296</v>
       </c>
       <c r="G149" t="n">
-        <v>77.9767233661593</v>
+        <v>85.7032814666461</v>
       </c>
       <c r="H149" t="n">
-        <v>16.7258849848664</v>
+        <v>69.0193003093278</v>
       </c>
       <c r="I149" t="n">
-        <v>55.7046979865772</v>
+        <v>77.6325534788481</v>
       </c>
     </row>
     <row r="150">
@@ -5863,25 +5869,25 @@
         <v>306</v>
       </c>
       <c r="C150" t="n">
-        <v>63780</v>
+        <v>24904</v>
       </c>
       <c r="D150" t="n">
-        <v>0.803816618761946</v>
+        <v>0.521453867413401</v>
       </c>
       <c r="E150" t="n">
-        <v>98.9463781749765</v>
+        <v>98.2733697398008</v>
       </c>
       <c r="F150" t="n">
-        <v>16.1492630918783</v>
+        <v>7.2277545775779</v>
       </c>
       <c r="G150" t="n">
-        <v>85.4260869565217</v>
+        <v>77.9767233661593</v>
       </c>
       <c r="H150" t="n">
-        <v>95.8482799176713</v>
+        <v>16.7258849848664</v>
       </c>
       <c r="I150" t="n">
-        <v>94.7721258453396</v>
+        <v>55.7046979865772</v>
       </c>
     </row>
     <row r="151">
@@ -5892,25 +5898,25 @@
         <v>308</v>
       </c>
       <c r="C151" t="n">
-        <v>150717</v>
+        <v>63780</v>
       </c>
       <c r="D151" t="n">
-        <v>0.635003741488737</v>
+        <v>0.803816618761946</v>
       </c>
       <c r="E151" t="n">
-        <v>98.1747248153825</v>
+        <v>98.9463781749765</v>
       </c>
       <c r="F151" t="n">
-        <v>8.02829143361399</v>
+        <v>16.1492630918783</v>
       </c>
       <c r="G151" t="n">
-        <v>84.3140542050852</v>
+        <v>85.4260869565217</v>
       </c>
       <c r="H151" t="n">
-        <v>39.6910039489234</v>
+        <v>95.8482799176713</v>
       </c>
       <c r="I151" t="n">
-        <v>81.9416020522872</v>
+        <v>94.7721258453396</v>
       </c>
     </row>
     <row r="152">
@@ -5921,25 +5927,25 @@
         <v>310</v>
       </c>
       <c r="C152" t="n">
-        <v>47803</v>
+        <v>150717</v>
       </c>
       <c r="D152" t="n">
-        <v>0.529511713329341</v>
+        <v>0.635003741488737</v>
       </c>
       <c r="E152" t="n">
-        <v>97.577557893856</v>
+        <v>98.1747248153825</v>
       </c>
       <c r="F152" t="n">
-        <v>4.18383783444554</v>
+        <v>8.02829143361399</v>
       </c>
       <c r="G152" t="n">
-        <v>84.5952575633688</v>
+        <v>84.3140542050852</v>
       </c>
       <c r="H152" t="n">
-        <v>16.9246176256373</v>
+        <v>39.6910039489234</v>
       </c>
       <c r="I152" t="n">
-        <v>58.6853605243991</v>
+        <v>81.9416020522872</v>
       </c>
     </row>
     <row r="153">
@@ -5950,25 +5956,25 @@
         <v>312</v>
       </c>
       <c r="C153" t="n">
-        <v>81929</v>
+        <v>47803</v>
       </c>
       <c r="D153" t="n">
-        <v>0.465292860287457</v>
+        <v>0.529511713329341</v>
       </c>
       <c r="E153" t="n">
-        <v>92.4849564867141</v>
+        <v>97.577557893856</v>
       </c>
       <c r="F153" t="n">
-        <v>9.88660913717975</v>
+        <v>4.18383783444554</v>
       </c>
       <c r="G153" t="n">
-        <v>58.983451536643</v>
+        <v>84.5952575633688</v>
       </c>
       <c r="H153" t="n">
-        <v>13.4101020675216</v>
+        <v>16.9246176256373</v>
       </c>
       <c r="I153" t="n">
-        <v>51.2902381575504</v>
+        <v>58.6853605243991</v>
       </c>
     </row>
     <row r="154">
@@ -5979,25 +5985,25 @@
         <v>314</v>
       </c>
       <c r="C154" t="n">
-        <v>665991</v>
+        <v>81929</v>
       </c>
       <c r="D154" t="n">
-        <v>0.635177868229333</v>
+        <v>0.465292860287457</v>
       </c>
       <c r="E154" t="n">
-        <v>96.4543064395765</v>
+        <v>92.4849564867141</v>
       </c>
       <c r="F154" t="n">
-        <v>13.5737570027223</v>
+        <v>9.88660913717975</v>
       </c>
       <c r="G154" t="n">
-        <v>68.5058870733428</v>
+        <v>58.983451536643</v>
       </c>
       <c r="H154" t="n">
-        <v>59.5819321625773</v>
+        <v>13.4101020675216</v>
       </c>
       <c r="I154" t="n">
-        <v>70.4238801012994</v>
+        <v>51.2902381575504</v>
       </c>
     </row>
     <row r="155">
@@ -6008,25 +6014,25 @@
         <v>316</v>
       </c>
       <c r="C155" t="n">
-        <v>138403</v>
+        <v>665991</v>
       </c>
       <c r="D155" t="n">
-        <v>0.362330644367836</v>
+        <v>0.635177868229333</v>
       </c>
       <c r="E155" t="n">
-        <v>92.7935088112252</v>
+        <v>96.4543064395765</v>
       </c>
       <c r="F155" t="n">
-        <v>2.38434137988338</v>
+        <v>13.5737570027223</v>
       </c>
       <c r="G155" t="n">
-        <v>46.6344570110904</v>
+        <v>68.5058870733428</v>
       </c>
       <c r="H155" t="n">
-        <v>11.0394925312052</v>
+        <v>59.5819321625773</v>
       </c>
       <c r="I155" t="n">
-        <v>26.7239615305914</v>
+        <v>70.4238801012994</v>
       </c>
     </row>
     <row r="156">
@@ -6037,25 +6043,25 @@
         <v>318</v>
       </c>
       <c r="C156" t="n">
-        <v>124298</v>
+        <v>138403</v>
       </c>
       <c r="D156" t="n">
-        <v>0.386266095652044</v>
+        <v>0.362330644367836</v>
       </c>
       <c r="E156" t="n">
-        <v>92.1720381663422</v>
+        <v>92.7935088112252</v>
       </c>
       <c r="F156" t="n">
-        <v>4.34439813995398</v>
+        <v>2.38434137988338</v>
       </c>
       <c r="G156" t="n">
-        <v>51.6997765835396</v>
+        <v>46.6344570110904</v>
       </c>
       <c r="H156" t="n">
-        <v>15.2102427761841</v>
+        <v>11.0394925312052</v>
       </c>
       <c r="I156" t="n">
-        <v>26.810326733366</v>
+        <v>26.7239615305914</v>
       </c>
     </row>
     <row r="157">
@@ -6066,25 +6072,25 @@
         <v>320</v>
       </c>
       <c r="C157" t="n">
-        <v>159693</v>
+        <v>124298</v>
       </c>
       <c r="D157" t="n">
-        <v>0.572574208586891</v>
+        <v>0.386266095652044</v>
       </c>
       <c r="E157" t="n">
-        <v>95.0411101300621</v>
+        <v>92.1720381663422</v>
       </c>
       <c r="F157" t="n">
-        <v>5.07223234581353</v>
+        <v>4.34439813995398</v>
       </c>
       <c r="G157" t="n">
-        <v>64.4916540212443</v>
+        <v>51.6997765835396</v>
       </c>
       <c r="H157" t="n">
-        <v>52.2205445931171</v>
+        <v>15.2102427761841</v>
       </c>
       <c r="I157" t="n">
-        <v>66.0800749726662</v>
+        <v>26.810326733366</v>
       </c>
     </row>
     <row r="158">
@@ -6095,25 +6101,25 @@
         <v>322</v>
       </c>
       <c r="C158" t="n">
-        <v>108535</v>
+        <v>159693</v>
       </c>
       <c r="D158" t="n">
-        <v>0.602665651923603</v>
+        <v>0.572574208586891</v>
       </c>
       <c r="E158" t="n">
-        <v>97.1410144193117</v>
+        <v>95.0411101300621</v>
       </c>
       <c r="F158" t="n">
-        <v>3.13263002718017</v>
+        <v>5.07223234581353</v>
       </c>
       <c r="G158" t="n">
-        <v>63.9162459654059</v>
+        <v>64.4916540212443</v>
       </c>
       <c r="H158" t="n">
-        <v>58.6340259205925</v>
+        <v>52.2205445931171</v>
       </c>
       <c r="I158" t="n">
-        <v>76.4204896111911</v>
+        <v>66.0800749726662</v>
       </c>
     </row>
     <row r="159">
@@ -6124,25 +6130,25 @@
         <v>324</v>
       </c>
       <c r="C159" t="n">
-        <v>287680</v>
+        <v>108535</v>
       </c>
       <c r="D159" t="n">
-        <v>0.649521610885942</v>
+        <v>0.602665651923603</v>
       </c>
       <c r="E159" t="n">
-        <v>95.8328698553949</v>
+        <v>97.1410144193117</v>
       </c>
       <c r="F159" t="n">
-        <v>10.0111234705228</v>
+        <v>3.13263002718017</v>
       </c>
       <c r="G159" t="n">
-        <v>70.9830917108143</v>
+        <v>63.9162459654059</v>
       </c>
       <c r="H159" t="n">
-        <v>61.0926038880808</v>
+        <v>58.6340259205925</v>
       </c>
       <c r="I159" t="n">
-        <v>80.1670342044761</v>
+        <v>76.4204896111911</v>
       </c>
     </row>
     <row r="160">
@@ -6153,25 +6159,25 @@
         <v>326</v>
       </c>
       <c r="C160" t="n">
-        <v>129396</v>
+        <v>287680</v>
       </c>
       <c r="D160" t="n">
-        <v>0.701012494992678</v>
+        <v>0.649521610885942</v>
       </c>
       <c r="E160" t="n">
-        <v>96.8863025132153</v>
+        <v>95.8328698553949</v>
       </c>
       <c r="F160" t="n">
-        <v>11.437756963121</v>
+        <v>10.0111234705228</v>
       </c>
       <c r="G160" t="n">
-        <v>74.0852536258559</v>
+        <v>70.9830917108143</v>
       </c>
       <c r="H160" t="n">
-        <v>73.1921487603306</v>
+        <v>61.0926038880808</v>
       </c>
       <c r="I160" t="n">
-        <v>87.2796143250689</v>
+        <v>80.1670342044761</v>
       </c>
     </row>
     <row r="161">
@@ -6182,25 +6188,25 @@
         <v>328</v>
       </c>
       <c r="C161" t="n">
-        <v>62319</v>
+        <v>129396</v>
       </c>
       <c r="D161" t="n">
-        <v>0.524969940056571</v>
+        <v>0.701012494992678</v>
       </c>
       <c r="E161" t="n">
-        <v>95.8760570612494</v>
+        <v>96.8863025132153</v>
       </c>
       <c r="F161" t="n">
-        <v>3.20929411575924</v>
+        <v>11.437756963121</v>
       </c>
       <c r="G161" t="n">
-        <v>57.5116009280742</v>
+        <v>74.0852536258559</v>
       </c>
       <c r="H161" t="n">
-        <v>36.8447257984209</v>
+        <v>73.1921487603306</v>
       </c>
       <c r="I161" t="n">
-        <v>66.9037627142755</v>
+        <v>87.2796143250689</v>
       </c>
     </row>
     <row r="162">
@@ -6211,25 +6217,25 @@
         <v>330</v>
       </c>
       <c r="C162" t="n">
-        <v>229236</v>
+        <v>62319</v>
       </c>
       <c r="D162" t="n">
-        <v>0.650063763317936</v>
+        <v>0.524969940056571</v>
       </c>
       <c r="E162" t="n">
-        <v>98.0740372367342</v>
+        <v>95.8760570612494</v>
       </c>
       <c r="F162" t="n">
-        <v>17.405643092708</v>
+        <v>3.20929411575924</v>
       </c>
       <c r="G162" t="n">
-        <v>83.8872104733132</v>
+        <v>57.5116009280742</v>
       </c>
       <c r="H162" t="n">
-        <v>44.5852291559948</v>
+        <v>36.8447257984209</v>
       </c>
       <c r="I162" t="n">
-        <v>69.4759996384126</v>
+        <v>66.9037627142755</v>
       </c>
     </row>
     <row r="163">
@@ -6240,25 +6246,25 @@
         <v>332</v>
       </c>
       <c r="C163" t="n">
-        <v>136829</v>
+        <v>229236</v>
       </c>
       <c r="D163" t="n">
-        <v>0.478793361320559</v>
+        <v>0.650063763317936</v>
       </c>
       <c r="E163" t="n">
-        <v>97.8484093284318</v>
+        <v>98.0740372367342</v>
       </c>
       <c r="F163" t="n">
-        <v>1.68093021216263</v>
+        <v>17.405643092708</v>
       </c>
       <c r="G163" t="n">
-        <v>76.7197619464379</v>
+        <v>83.8872104733132</v>
       </c>
       <c r="H163" t="n">
-        <v>21.1488043219194</v>
+        <v>44.5852291559948</v>
       </c>
       <c r="I163" t="n">
-        <v>40.8781547098859</v>
+        <v>69.4759996384126</v>
       </c>
     </row>
     <row r="164">
@@ -6269,25 +6275,25 @@
         <v>334</v>
       </c>
       <c r="C164" t="n">
-        <v>73946</v>
+        <v>136829</v>
       </c>
       <c r="D164" t="n">
-        <v>0.477058224782522</v>
+        <v>0.478793361320559</v>
       </c>
       <c r="E164" t="n">
-        <v>97.3264273929624</v>
+        <v>97.8484093284318</v>
       </c>
       <c r="F164" t="n">
-        <v>3.78654693965867</v>
+        <v>1.68093021216263</v>
       </c>
       <c r="G164" t="n">
-        <v>68.9430714916152</v>
+        <v>76.7197619464379</v>
       </c>
       <c r="H164" t="n">
-        <v>22.2985276520472</v>
+        <v>21.1488043219194</v>
       </c>
       <c r="I164" t="n">
-        <v>43.6501742885386</v>
+        <v>40.8781547098859</v>
       </c>
     </row>
     <row r="165">
@@ -6298,25 +6304,25 @@
         <v>336</v>
       </c>
       <c r="C165" t="n">
-        <v>126259</v>
+        <v>73946</v>
       </c>
       <c r="D165" t="n">
-        <v>0.506345233224067</v>
+        <v>0.477058224782522</v>
       </c>
       <c r="E165" t="n">
-        <v>97.7752081039767</v>
+        <v>97.3264273929624</v>
       </c>
       <c r="F165" t="n">
-        <v>3.08888871288383</v>
+        <v>3.78654693965867</v>
       </c>
       <c r="G165" t="n">
-        <v>82.5574177529485</v>
+        <v>68.9430714916152</v>
       </c>
       <c r="H165" t="n">
-        <v>18.8942598187311</v>
+        <v>22.2985276520472</v>
       </c>
       <c r="I165" t="n">
-        <v>48.797583081571</v>
+        <v>43.6501742885386</v>
       </c>
     </row>
     <row r="166">
@@ -6327,25 +6333,25 @@
         <v>338</v>
       </c>
       <c r="C166" t="n">
-        <v>81059</v>
+        <v>126259</v>
       </c>
       <c r="D166" t="n">
-        <v>0.517507581775208</v>
+        <v>0.506345233224067</v>
       </c>
       <c r="E166" t="n">
-        <v>98.4936897815172</v>
+        <v>97.7752081039767</v>
       </c>
       <c r="F166" t="n">
-        <v>2.83743939599551</v>
+        <v>3.08888871288383</v>
       </c>
       <c r="G166" t="n">
-        <v>82.2326863443207</v>
+        <v>82.5574177529485</v>
       </c>
       <c r="H166" t="n">
-        <v>16.6851802198644</v>
+        <v>18.8942598187311</v>
       </c>
       <c r="I166" t="n">
-        <v>56.6131688819091</v>
+        <v>48.797583081571</v>
       </c>
     </row>
     <row r="167">
@@ -6356,25 +6362,25 @@
         <v>340</v>
       </c>
       <c r="C167" t="n">
-        <v>69522</v>
+        <v>81059</v>
       </c>
       <c r="D167" t="n">
-        <v>0.499343975270608</v>
+        <v>0.517507581775208</v>
       </c>
       <c r="E167" t="n">
-        <v>97.6841863007393</v>
+        <v>98.4936897815172</v>
       </c>
       <c r="F167" t="n">
-        <v>4.4590201662783</v>
+        <v>2.83743939599551</v>
       </c>
       <c r="G167" t="n">
-        <v>79.3865030674847</v>
+        <v>82.2326863443207</v>
       </c>
       <c r="H167" t="n">
-        <v>18.386575735822</v>
+        <v>16.6851802198644</v>
       </c>
       <c r="I167" t="n">
-        <v>46.7830222541278</v>
+        <v>56.6131688819091</v>
       </c>
     </row>
     <row r="168">
@@ -6385,25 +6391,25 @@
         <v>342</v>
       </c>
       <c r="C168" t="n">
-        <v>48223</v>
+        <v>69522</v>
       </c>
       <c r="D168" t="n">
-        <v>0.469752519242049</v>
+        <v>0.499343975270608</v>
       </c>
       <c r="E168" t="n">
-        <v>98.3970304626423</v>
+        <v>97.6841863007393</v>
       </c>
       <c r="F168" t="n">
-        <v>3.11054890819733</v>
+        <v>4.4590201662783</v>
       </c>
       <c r="G168" t="n">
-        <v>76.8121168409665</v>
+        <v>79.3865030674847</v>
       </c>
       <c r="H168" t="n">
-        <v>16.8222154222766</v>
+        <v>18.386575735822</v>
       </c>
       <c r="I168" t="n">
-        <v>37.6606487148103</v>
+        <v>46.7830222541278</v>
       </c>
     </row>
     <row r="169">
@@ -6414,25 +6420,25 @@
         <v>344</v>
       </c>
       <c r="C169" t="n">
-        <v>74735</v>
+        <v>48223</v>
       </c>
       <c r="D169" t="n">
-        <v>0.534930704109485</v>
+        <v>0.469752519242049</v>
       </c>
       <c r="E169" t="n">
-        <v>98.1882652037198</v>
+        <v>98.3970304626423</v>
       </c>
       <c r="F169" t="n">
-        <v>4.8170201378203</v>
+        <v>3.11054890819733</v>
       </c>
       <c r="G169" t="n">
-        <v>76.5198283980329</v>
+        <v>76.8121168409665</v>
       </c>
       <c r="H169" t="n">
-        <v>40.9113645458183</v>
+        <v>16.8222154222766</v>
       </c>
       <c r="I169" t="n">
-        <v>43.8175270108043</v>
+        <v>37.6606487148103</v>
       </c>
     </row>
     <row r="170">
@@ -6443,25 +6449,25 @@
         <v>346</v>
       </c>
       <c r="C170" t="n">
-        <v>27819</v>
+        <v>74735</v>
       </c>
       <c r="D170" t="n">
-        <v>0.536345506825475</v>
+        <v>0.534930704109485</v>
       </c>
       <c r="E170" t="n">
-        <v>97.210539559294</v>
+        <v>98.1882652037198</v>
       </c>
       <c r="F170" t="n">
-        <v>1.79733275818685</v>
+        <v>4.8170201378203</v>
       </c>
       <c r="G170" t="n">
-        <v>76.6031195840555</v>
+        <v>76.5198283980329</v>
       </c>
       <c r="H170" t="n">
-        <v>32.2484577749415</v>
+        <v>40.9113645458183</v>
       </c>
       <c r="I170" t="n">
-        <v>59.1150818974686</v>
+        <v>43.8175270108043</v>
       </c>
     </row>
     <row r="171">
@@ -6472,25 +6478,25 @@
         <v>348</v>
       </c>
       <c r="C171" t="n">
-        <v>50490</v>
+        <v>27819</v>
       </c>
       <c r="D171" t="n">
-        <v>0.449976722796617</v>
+        <v>0.536345506825475</v>
       </c>
       <c r="E171" t="n">
-        <v>97.9084967320261</v>
+        <v>97.210539559294</v>
       </c>
       <c r="F171" t="n">
-        <v>2.77282630223807</v>
+        <v>1.79733275818685</v>
       </c>
       <c r="G171" t="n">
-        <v>74.8088448026452</v>
+        <v>76.6031195840555</v>
       </c>
       <c r="H171" t="n">
-        <v>6.93634039205402</v>
+        <v>32.2484577749415</v>
       </c>
       <c r="I171" t="n">
-        <v>40.7133023011867</v>
+        <v>59.1150818974686</v>
       </c>
     </row>
     <row r="172">
@@ -6501,25 +6507,25 @@
         <v>350</v>
       </c>
       <c r="C172" t="n">
-        <v>240776</v>
+        <v>50490</v>
       </c>
       <c r="D172" t="n">
-        <v>0.715530484171154</v>
+        <v>0.449976722796617</v>
       </c>
       <c r="E172" t="n">
-        <v>98.116921952354</v>
+        <v>97.9084967320261</v>
       </c>
       <c r="F172" t="n">
-        <v>16.1976276705319</v>
+        <v>2.77282630223807</v>
       </c>
       <c r="G172" t="n">
-        <v>88.2656166099875</v>
+        <v>74.8088448026452</v>
       </c>
       <c r="H172" t="n">
-        <v>62.2981924138983</v>
+        <v>6.93634039205402</v>
       </c>
       <c r="I172" t="n">
-        <v>82.0884649917837</v>
+        <v>40.7133023011867</v>
       </c>
     </row>
     <row r="173">
@@ -6530,25 +6536,25 @@
         <v>352</v>
       </c>
       <c r="C173" t="n">
-        <v>62147</v>
+        <v>240776</v>
       </c>
       <c r="D173" t="n">
-        <v>0.476292630361034</v>
+        <v>0.715530484171154</v>
       </c>
       <c r="E173" t="n">
-        <v>97.6877403575394</v>
+        <v>98.116921952354</v>
       </c>
       <c r="F173" t="n">
-        <v>5.30999082819766</v>
+        <v>16.1976276705319</v>
       </c>
       <c r="G173" t="n">
-        <v>75.2369180057684</v>
+        <v>88.2656166099875</v>
       </c>
       <c r="H173" t="n">
-        <v>12.3697779648532</v>
+        <v>62.2981924138983</v>
       </c>
       <c r="I173" t="n">
-        <v>44.001894138693</v>
+        <v>82.0884649917837</v>
       </c>
     </row>
     <row r="174">
@@ -6559,25 +6565,25 @@
         <v>354</v>
       </c>
       <c r="C174" t="n">
-        <v>47400</v>
+        <v>62147</v>
       </c>
       <c r="D174" t="n">
-        <v>0.588198164047948</v>
+        <v>0.476292630361034</v>
       </c>
       <c r="E174" t="n">
-        <v>97.4746835443038</v>
+        <v>97.6877403575394</v>
       </c>
       <c r="F174" t="n">
-        <v>5.06329113924051</v>
+        <v>5.30999082819766</v>
       </c>
       <c r="G174" t="n">
-        <v>81.9889502762431</v>
+        <v>75.2369180057684</v>
       </c>
       <c r="H174" t="n">
-        <v>31.8144033854757</v>
+        <v>12.3697779648532</v>
       </c>
       <c r="I174" t="n">
-        <v>74.3822262525504</v>
+        <v>44.001894138693</v>
       </c>
     </row>
     <row r="175">
@@ -6588,25 +6594,25 @@
         <v>356</v>
       </c>
       <c r="C175" t="n">
-        <v>115389</v>
+        <v>47400</v>
       </c>
       <c r="D175" t="n">
-        <v>0.562643359658352</v>
+        <v>0.588198164047948</v>
       </c>
       <c r="E175" t="n">
-        <v>94.1952872457513</v>
+        <v>97.4746835443038</v>
       </c>
       <c r="F175" t="n">
-        <v>7.10639662359497</v>
+        <v>5.06329113924051</v>
       </c>
       <c r="G175" t="n">
-        <v>61.5298324335694</v>
+        <v>81.9889502762431</v>
       </c>
       <c r="H175" t="n">
-        <v>59.5857436088823</v>
+        <v>31.8144033854757</v>
       </c>
       <c r="I175" t="n">
-        <v>54.166822168315</v>
+        <v>74.3822262525504</v>
       </c>
     </row>
     <row r="176">
@@ -6617,25 +6623,25 @@
         <v>358</v>
       </c>
       <c r="C176" t="n">
-        <v>49293</v>
+        <v>115389</v>
       </c>
       <c r="D176" t="n">
-        <v>0.467896560733216</v>
+        <v>0.562643359658352</v>
       </c>
       <c r="E176" t="n">
-        <v>92.6622441320269</v>
+        <v>94.1952872457513</v>
       </c>
       <c r="F176" t="n">
-        <v>4.66597691355771</v>
+        <v>7.10639662359497</v>
       </c>
       <c r="G176" t="n">
-        <v>53.3076536593535</v>
+        <v>61.5298324335694</v>
       </c>
       <c r="H176" t="n">
-        <v>31.140350877193</v>
+        <v>59.5857436088823</v>
       </c>
       <c r="I176" t="n">
-        <v>49.0614035087719</v>
+        <v>54.166822168315</v>
       </c>
     </row>
     <row r="177">
@@ -6646,25 +6652,25 @@
         <v>360</v>
       </c>
       <c r="C177" t="n">
-        <v>33638</v>
+        <v>49293</v>
       </c>
       <c r="D177" t="n">
-        <v>0.467276423502344</v>
+        <v>0.467896560733216</v>
       </c>
       <c r="E177" t="n">
-        <v>95.2553659551698</v>
+        <v>92.6622441320269</v>
       </c>
       <c r="F177" t="n">
-        <v>4.75652535822582</v>
+        <v>4.66597691355771</v>
       </c>
       <c r="G177" t="n">
-        <v>47.0767785865227</v>
+        <v>53.3076536593535</v>
       </c>
       <c r="H177" t="n">
-        <v>47.6274403470716</v>
+        <v>31.140350877193</v>
       </c>
       <c r="I177" t="n">
-        <v>35.7510845986985</v>
+        <v>49.0614035087719</v>
       </c>
     </row>
     <row r="178">
@@ -6675,25 +6681,25 @@
         <v>362</v>
       </c>
       <c r="C178" t="n">
-        <v>24448</v>
+        <v>33638</v>
       </c>
       <c r="D178" t="n">
-        <v>0.511237703324854</v>
+        <v>0.467276423502344</v>
       </c>
       <c r="E178" t="n">
-        <v>95.1529777486911</v>
+        <v>95.2553659551698</v>
       </c>
       <c r="F178" t="n">
-        <v>6.13547120418848</v>
+        <v>4.75652535822582</v>
       </c>
       <c r="G178" t="n">
-        <v>53.2198865532199</v>
+        <v>47.0767785865227</v>
       </c>
       <c r="H178" t="n">
-        <v>54.1582491582492</v>
+        <v>47.6274403470716</v>
       </c>
       <c r="I178" t="n">
-        <v>42.8619528619529</v>
+        <v>35.7510845986985</v>
       </c>
     </row>
     <row r="179">
@@ -6704,25 +6710,25 @@
         <v>364</v>
       </c>
       <c r="C179" t="n">
-        <v>79075</v>
+        <v>24448</v>
       </c>
       <c r="D179" t="n">
-        <v>0.471254836411867</v>
+        <v>0.511237703324854</v>
       </c>
       <c r="E179" t="n">
-        <v>94.9819791337338</v>
+        <v>95.1529777486911</v>
       </c>
       <c r="F179" t="n">
-        <v>3.66740436294657</v>
+        <v>6.13547120418848</v>
       </c>
       <c r="G179" t="n">
-        <v>51.3313008130081</v>
+        <v>53.2198865532199</v>
       </c>
       <c r="H179" t="n">
-        <v>41.6474843801381</v>
+        <v>54.1582491582492</v>
       </c>
       <c r="I179" t="n">
-        <v>41.5543132741423</v>
+        <v>42.8619528619529</v>
       </c>
     </row>
     <row r="180">
@@ -6733,25 +6739,25 @@
         <v>366</v>
       </c>
       <c r="C180" t="n">
-        <v>50884</v>
+        <v>79075</v>
       </c>
       <c r="D180" t="n">
-        <v>0.55736120753368</v>
+        <v>0.471254836411867</v>
       </c>
       <c r="E180" t="n">
-        <v>94.4599481172864</v>
+        <v>94.9819791337338</v>
       </c>
       <c r="F180" t="n">
-        <v>6.09228834211147</v>
+        <v>3.66740436294657</v>
       </c>
       <c r="G180" t="n">
-        <v>63.179981349083</v>
+        <v>51.3313008130081</v>
       </c>
       <c r="H180" t="n">
-        <v>54.6604137006951</v>
+        <v>41.6474843801381</v>
       </c>
       <c r="I180" t="n">
-        <v>56.2264466962566</v>
+        <v>41.5543132741423</v>
       </c>
     </row>
     <row r="181">
@@ -6762,25 +6768,25 @@
         <v>368</v>
       </c>
       <c r="C181" t="n">
-        <v>37721</v>
+        <v>50884</v>
       </c>
       <c r="D181" t="n">
-        <v>0.542067859536303</v>
+        <v>0.55736120753368</v>
       </c>
       <c r="E181" t="n">
-        <v>94.5971739879643</v>
+        <v>94.4599481172864</v>
       </c>
       <c r="F181" t="n">
-        <v>3.71146045969089</v>
+        <v>6.09228834211147</v>
       </c>
       <c r="G181" t="n">
-        <v>59.6655082536924</v>
+        <v>63.179981349083</v>
       </c>
       <c r="H181" t="n">
-        <v>49.5784543325527</v>
+        <v>54.6604137006951</v>
       </c>
       <c r="I181" t="n">
-        <v>61.0070257611241</v>
+        <v>56.2264466962566</v>
       </c>
     </row>
     <row r="182">
@@ -6791,25 +6797,25 @@
         <v>370</v>
       </c>
       <c r="C182" t="n">
-        <v>104882</v>
+        <v>37721</v>
       </c>
       <c r="D182" t="n">
-        <v>0.546504273603544</v>
+        <v>0.542067859536303</v>
       </c>
       <c r="E182" t="n">
-        <v>93.8521385938483</v>
+        <v>94.5971739879643</v>
       </c>
       <c r="F182" t="n">
-        <v>6.86485764954902</v>
+        <v>3.71146045969089</v>
       </c>
       <c r="G182" t="n">
-        <v>62.4348220358195</v>
+        <v>59.6655082536924</v>
       </c>
       <c r="H182" t="n">
-        <v>43.5679861597397</v>
+        <v>49.5784543325527</v>
       </c>
       <c r="I182" t="n">
-        <v>61.9557605964493</v>
+        <v>61.0070257611241</v>
       </c>
     </row>
     <row r="183">
@@ -6820,25 +6826,25 @@
         <v>372</v>
       </c>
       <c r="C183" t="n">
-        <v>161132</v>
+        <v>104882</v>
       </c>
       <c r="D183" t="n">
-        <v>0.709590936666641</v>
+        <v>0.546504273603544</v>
       </c>
       <c r="E183" t="n">
-        <v>96.721942258521</v>
+        <v>93.8521385938483</v>
       </c>
       <c r="F183" t="n">
-        <v>17.1908745624705</v>
+        <v>6.86485764954902</v>
       </c>
       <c r="G183" t="n">
-        <v>75.638216281363</v>
+        <v>62.4348220358195</v>
       </c>
       <c r="H183" t="n">
-        <v>72.7354537529177</v>
+        <v>43.5679861597397</v>
       </c>
       <c r="I183" t="n">
-        <v>81.0483984364015</v>
+        <v>61.9557605964493</v>
       </c>
     </row>
     <row r="184">
@@ -6849,25 +6855,25 @@
         <v>374</v>
       </c>
       <c r="C184" t="n">
-        <v>72346</v>
+        <v>161132</v>
       </c>
       <c r="D184" t="n">
-        <v>0.507115737421018</v>
+        <v>0.709590936666641</v>
       </c>
       <c r="E184" t="n">
-        <v>93.3970088187322</v>
+        <v>96.721942258521</v>
       </c>
       <c r="F184" t="n">
-        <v>7.32590606253283</v>
+        <v>17.1908745624705</v>
       </c>
       <c r="G184" t="n">
-        <v>69.2209302325581</v>
+        <v>75.638216281363</v>
       </c>
       <c r="H184" t="n">
-        <v>20.1621652486724</v>
+        <v>72.7354537529177</v>
       </c>
       <c r="I184" t="n">
-        <v>58.5679209729915</v>
+        <v>81.0483984364015</v>
       </c>
     </row>
     <row r="185">
@@ -6878,25 +6884,25 @@
         <v>376</v>
       </c>
       <c r="C185" t="n">
-        <v>262731</v>
+        <v>72346</v>
       </c>
       <c r="D185" t="n">
-        <v>0.777709280027382</v>
+        <v>0.507115737421018</v>
       </c>
       <c r="E185" t="n">
-        <v>98.3172903083382</v>
+        <v>93.3970088187322</v>
       </c>
       <c r="F185" t="n">
-        <v>24.1692072880627</v>
+        <v>7.32590606253283</v>
       </c>
       <c r="G185" t="n">
-        <v>84.2581047381546</v>
+        <v>69.2209302325581</v>
       </c>
       <c r="H185" t="n">
-        <v>83.5618352829371</v>
+        <v>20.1621652486724</v>
       </c>
       <c r="I185" t="n">
-        <v>82.4353975374897</v>
+        <v>58.5679209729915</v>
       </c>
     </row>
     <row r="186">
@@ -6907,25 +6913,25 @@
         <v>378</v>
       </c>
       <c r="C186" t="n">
-        <v>8373</v>
+        <v>262731</v>
       </c>
       <c r="D186" t="n">
-        <v>0.549788888626331</v>
+        <v>0.777709280027382</v>
       </c>
       <c r="E186" t="n">
-        <v>98.3876746685776</v>
+        <v>98.3172903083382</v>
       </c>
       <c r="F186" t="n">
-        <v>3.58294518093873</v>
+        <v>24.1692072880627</v>
       </c>
       <c r="G186" t="n">
-        <v>82.2077922077922</v>
+        <v>84.2581047381546</v>
       </c>
       <c r="H186" t="n">
-        <v>14.3772241992883</v>
+        <v>83.5618352829371</v>
       </c>
       <c r="I186" t="n">
-        <v>73.9501779359431</v>
+        <v>82.4353975374897</v>
       </c>
     </row>
     <row r="187">
@@ -6936,25 +6942,25 @@
         <v>380</v>
       </c>
       <c r="C187" t="n">
-        <v>9872</v>
+        <v>8373</v>
       </c>
       <c r="D187" t="n">
-        <v>0.727881989762774</v>
+        <v>0.549788888626331</v>
       </c>
       <c r="E187" t="n">
-        <v>98.5413290113452</v>
+        <v>98.3876746685776</v>
       </c>
       <c r="F187" t="n">
-        <v>24.3111831442464</v>
+        <v>3.58294518093873</v>
       </c>
       <c r="G187" t="n">
-        <v>82.6546003016591</v>
+        <v>82.2077922077922</v>
       </c>
       <c r="H187" t="n">
-        <v>58.246609902239</v>
+        <v>14.3772241992883</v>
       </c>
       <c r="I187" t="n">
-        <v>83.9798170923999</v>
+        <v>73.9501779359431</v>
       </c>
     </row>
     <row r="188">
@@ -6965,25 +6971,25 @@
         <v>382</v>
       </c>
       <c r="C188" t="n">
-        <v>7805</v>
+        <v>9872</v>
       </c>
       <c r="D188" t="n">
-        <v>0.599901673020489</v>
+        <v>0.727881989762774</v>
       </c>
       <c r="E188" t="n">
-        <v>98.1422165278668</v>
+        <v>98.5413290113452</v>
       </c>
       <c r="F188" t="n">
-        <v>11.531069827034</v>
+        <v>24.3111831442464</v>
       </c>
       <c r="G188" t="n">
-        <v>79.4985250737463</v>
+        <v>82.6546003016591</v>
       </c>
       <c r="H188" t="n">
-        <v>39.8969451601031</v>
+        <v>58.246609902239</v>
       </c>
       <c r="I188" t="n">
-        <v>63.1947000368053</v>
+        <v>83.9798170923999</v>
       </c>
     </row>
     <row r="189">
@@ -6994,25 +7000,25 @@
         <v>384</v>
       </c>
       <c r="C189" t="n">
-        <v>142338</v>
+        <v>7805</v>
       </c>
       <c r="D189" t="n">
-        <v>0.703787718286724</v>
+        <v>0.599901673020489</v>
       </c>
       <c r="E189" t="n">
-        <v>96.5806741699335</v>
+        <v>98.1422165278668</v>
       </c>
       <c r="F189" t="n">
-        <v>14.7536146355857</v>
+        <v>11.531069827034</v>
       </c>
       <c r="G189" t="n">
-        <v>80.2104382969828</v>
+        <v>79.4985250737463</v>
       </c>
       <c r="H189" t="n">
-        <v>67.181027944694</v>
+        <v>39.8969451601031</v>
       </c>
       <c r="I189" t="n">
-        <v>83.3323610057756</v>
+        <v>63.1947000368053</v>
       </c>
     </row>
     <row r="190">
@@ -7023,25 +7029,25 @@
         <v>386</v>
       </c>
       <c r="C190" t="n">
-        <v>16914</v>
+        <v>142338</v>
       </c>
       <c r="D190" t="n">
-        <v>0.588386932933323</v>
+        <v>0.703787718286724</v>
       </c>
       <c r="E190" t="n">
-        <v>96.647747428166</v>
+        <v>96.5806741699335</v>
       </c>
       <c r="F190" t="n">
-        <v>4.13858342201726</v>
+        <v>14.7536146355857</v>
       </c>
       <c r="G190" t="n">
-        <v>75.2821670428894</v>
+        <v>80.2104382969828</v>
       </c>
       <c r="H190" t="n">
-        <v>39.0955506929249</v>
+        <v>67.181027944694</v>
       </c>
       <c r="I190" t="n">
-        <v>76.2703622659859</v>
+        <v>83.3323610057756</v>
       </c>
     </row>
     <row r="191">
@@ -7052,25 +7058,25 @@
         <v>388</v>
       </c>
       <c r="C191" t="n">
-        <v>41054</v>
+        <v>16914</v>
       </c>
       <c r="D191" t="n">
-        <v>0.628475775175392</v>
+        <v>0.588386932933323</v>
       </c>
       <c r="E191" t="n">
-        <v>94.9797827251912</v>
+        <v>96.647747428166</v>
       </c>
       <c r="F191" t="n">
-        <v>6.5767038534613</v>
+        <v>4.13858342201726</v>
       </c>
       <c r="G191" t="n">
-        <v>75.7869249394673</v>
+        <v>75.2821670428894</v>
       </c>
       <c r="H191" t="n">
-        <v>56.8192912232744</v>
+        <v>39.0955506929249</v>
       </c>
       <c r="I191" t="n">
-        <v>75.6907156106609</v>
+        <v>76.2703622659859</v>
       </c>
     </row>
     <row r="192">
@@ -7081,25 +7087,25 @@
         <v>390</v>
       </c>
       <c r="C192" t="n">
-        <v>333890</v>
+        <v>41054</v>
       </c>
       <c r="D192" t="n">
-        <v>0.601237926344152</v>
+        <v>0.628475775175392</v>
       </c>
       <c r="E192" t="n">
-        <v>93.5391895534458</v>
+        <v>94.9797827251912</v>
       </c>
       <c r="F192" t="n">
-        <v>10.003294498188</v>
+        <v>6.5767038534613</v>
       </c>
       <c r="G192" t="n">
-        <v>72.9009995240362</v>
+        <v>75.7869249394673</v>
       </c>
       <c r="H192" t="n">
-        <v>44.7295855446395</v>
+        <v>56.8192912232744</v>
       </c>
       <c r="I192" t="n">
-        <v>72.7770310529744</v>
+        <v>75.6907156106609</v>
       </c>
     </row>
     <row r="193">
@@ -7110,25 +7116,25 @@
         <v>392</v>
       </c>
       <c r="C193" t="n">
-        <v>43933</v>
+        <v>333890</v>
       </c>
       <c r="D193" t="n">
-        <v>0.371796120634763</v>
+        <v>0.601237926344152</v>
       </c>
       <c r="E193" t="n">
-        <v>80.7889285958164</v>
+        <v>93.5391895534458</v>
       </c>
       <c r="F193" t="n">
-        <v>4.0971479298022</v>
+        <v>10.003294498188</v>
       </c>
       <c r="G193" t="n">
-        <v>45.7374575631837</v>
+        <v>72.9009995240362</v>
       </c>
       <c r="H193" t="n">
-        <v>20.7597361140668</v>
+        <v>44.7295855446395</v>
       </c>
       <c r="I193" t="n">
-        <v>31.7833581613109</v>
+        <v>72.7770310529744</v>
       </c>
     </row>
     <row r="194">
@@ -7139,25 +7145,25 @@
         <v>394</v>
       </c>
       <c r="C194" t="n">
-        <v>50590</v>
+        <v>43933</v>
       </c>
       <c r="D194" t="n">
-        <v>0.431463326879766</v>
+        <v>0.371796120634763</v>
       </c>
       <c r="E194" t="n">
-        <v>93.2674441589247</v>
+        <v>80.7889285958164</v>
       </c>
       <c r="F194" t="n">
-        <v>2.96501284838901</v>
+        <v>4.0971479298022</v>
       </c>
       <c r="G194" t="n">
-        <v>60.1796407185629</v>
+        <v>45.7374575631837</v>
       </c>
       <c r="H194" t="n">
-        <v>13.9356559426571</v>
+        <v>20.7597361140668</v>
       </c>
       <c r="I194" t="n">
-        <v>43.4072345390898</v>
+        <v>31.7833581613109</v>
       </c>
     </row>
     <row r="195">
@@ -7168,24 +7174,53 @@
         <v>396</v>
       </c>
       <c r="C195" t="n">
+        <v>50590</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.431463326879766</v>
+      </c>
+      <c r="E195" t="n">
+        <v>93.2674441589247</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2.96501284838901</v>
+      </c>
+      <c r="G195" t="n">
+        <v>60.1796407185629</v>
+      </c>
+      <c r="H195" t="n">
+        <v>13.9356559426571</v>
+      </c>
+      <c r="I195" t="n">
+        <v>43.4072345390898</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>397</v>
+      </c>
+      <c r="B196" t="s">
+        <v>398</v>
+      </c>
+      <c r="C196" t="n">
         <v>3746</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D196" t="n">
         <v>0.369337341473417</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E196" t="n">
         <v>88.1473571809931</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F196" t="n">
         <v>13.3475707421249</v>
       </c>
-      <c r="G195" t="n">
+      <c r="G196" t="n">
         <v>41.6666666666667</v>
       </c>
-      <c r="H195" t="n">
+      <c r="H196" t="n">
         <v>0.271739130434783</v>
       </c>
-      <c r="I195" t="n">
+      <c r="I196" t="n">
         <v>32.3369565217391</v>
       </c>
     </row>
